--- a/plots/basic_stats/single_var_stats/allmus_summary_var-region_name.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-region_name.xlsx
@@ -386,10 +386,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="C2">
-        <v>14.78</v>
+        <v>14.71</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="C3">
-        <v>14.26</v>
+        <v>13.93</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="C4">
-        <v>13.43</v>
+        <v>13.29</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -440,10 +440,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="C5">
-        <v>9.800000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C6">
-        <v>7.88</v>
+        <v>7.69</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="C7">
-        <v>7.08</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -490,14 +490,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>West Midlands</t>
+          <t>Yorkshire and The Humber</t>
         </is>
       </c>
       <c r="B8">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C8">
-        <v>6.88</v>
+        <v>6.79</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -508,14 +508,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yorkshire and The Humber</t>
+          <t>West Midlands</t>
         </is>
       </c>
       <c r="B9">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C9">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C10">
-        <v>6.61</v>
+        <v>6.53</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C11">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C12">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C13">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
